--- a/Travis_County/Documentation/Travis_County_2015_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2015_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QESL' 'QNOHLTH' 'QSERV']</t>
+          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT' 'QSERV']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
+          <t>['QRENTER' 'MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QPOVTY' 'QRENTER' 'QNOAUTO']</t>
+          <t>['PPUNIT' 'QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -605,51 +605,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.695004239252223</v>
+        <v>0.8604417976494784</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03972856422957101</v>
+        <v>0.160568581771358</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1344850060751257</v>
+        <v>-0.06915685180667901</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2953432234116738</v>
+        <v>0.09000733896073516</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.502693297905875</v>
+        <v>0.1477021107151448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05289376546120841</v>
+        <v>-0.1588306519121793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7821909684106643</v>
+        <v>0.6950042396927377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1656086920356544</v>
+        <v>-0.03972856865249846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01459395342515542</v>
+        <v>-0.1344850090949592</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.003581474108560968</v>
+        <v>0.2953432226727966</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0525597483316134</v>
+        <v>-0.5026933097031449</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1839728294064974</v>
+        <v>0.05289376696467377</v>
       </c>
     </row>
     <row r="4">
@@ -659,22 +659,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8796164287627907</v>
+        <v>0.8796164256370079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2014919076394519</v>
+        <v>0.201491906632824</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01904085806684234</v>
+        <v>-0.01904085998538924</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2532049779773362</v>
+        <v>0.2532049821778706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1445291334408286</v>
+        <v>0.1445291279046995</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06380105283520836</v>
+        <v>-0.06380105393169604</v>
       </c>
     </row>
     <row r="5">
@@ -684,72 +684,72 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8323334980524325</v>
+        <v>0.8323335045057275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3030498689221948</v>
+        <v>0.3030498672351184</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1374418384781429</v>
+        <v>-0.1374418399146687</v>
       </c>
       <c r="E5" t="n">
-        <v>0.246771953079392</v>
+        <v>0.2467719531841395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08043022180549352</v>
+        <v>0.08043021670754288</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04898791615326972</v>
+        <v>-0.04898791491532303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8604418000700884</v>
+        <v>0.6263524583266623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1605685815816672</v>
+        <v>0.4231482320438646</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06915685185888419</v>
+        <v>-0.1289248804973536</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09000733551783623</v>
+        <v>0.2413968230640429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1477021141364178</v>
+        <v>0.257759549070146</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1588306505338941</v>
+        <v>-0.1447924359971534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6263524573890221</v>
+        <v>0.7821909691904856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4231482336030435</v>
+        <v>0.1656086918889093</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1289248797852432</v>
+        <v>0.01459395357765911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2413968179561135</v>
+        <v>-0.003581474197257717</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2577595522771441</v>
+        <v>0.05255974705525795</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1447924346311586</v>
+        <v>-0.1839728301921103</v>
       </c>
     </row>
     <row r="8">
@@ -759,72 +759,72 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4381629359430854</v>
+        <v>0.4381629365198772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6688082060638825</v>
+        <v>0.66880820247897</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2718828377208169</v>
+        <v>-0.2718828411818507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.324075722463524</v>
+        <v>0.324075727470801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1684201610440805</v>
+        <v>0.1684201565279889</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02168969166999142</v>
+        <v>0.021689691894979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3292221016870071</v>
+        <v>0.1825438482005984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7773717326629215</v>
+        <v>0.8515610073946787</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04704188475340376</v>
+        <v>-0.1644290267268402</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2450555865746297</v>
+        <v>0.2015465458342662</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02255222202675789</v>
+        <v>0.2742661756177662</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.004208326479044623</v>
+        <v>-0.01891201803612595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1825438457435212</v>
+        <v>0.3292221004674073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8515610136117883</v>
+        <v>0.777371739145433</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.16442902320817</v>
+        <v>-0.04704188475049402</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2015465399142738</v>
+        <v>0.2450555885401677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2742661766577038</v>
+        <v>-0.02255222619899414</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01891201838817727</v>
+        <v>-0.00420832700537627</v>
       </c>
     </row>
     <row r="11">
@@ -834,22 +834,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1025583091209939</v>
+        <v>0.1025583099229878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2551143950836023</v>
+        <v>0.2551143919769759</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01547994301576771</v>
+        <v>-0.01547994434575837</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4851388591129981</v>
+        <v>0.4851388598071205</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07551422888147703</v>
+        <v>0.07551422482507193</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04224833004565345</v>
+        <v>0.04224833066485714</v>
       </c>
     </row>
     <row r="12">
@@ -859,22 +859,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1062308579613018</v>
+        <v>0.1062308591004697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2023021823204228</v>
+        <v>0.2023021799095329</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08247401162206593</v>
+        <v>-0.08247401214069838</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5455063304859106</v>
+        <v>0.5455063355779279</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3751707006005604</v>
+        <v>0.3751706954134068</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02169796940139792</v>
+        <v>-0.02169796957825108</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4669965694749189</v>
+        <v>0.4669965697143185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3070170538318163</v>
+        <v>0.3070170503415574</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.181383816834958</v>
+        <v>-0.1813838185569957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3973956030556623</v>
+        <v>0.3973956104008125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3079941450357202</v>
+        <v>0.3079941395575553</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01273744252096867</v>
+        <v>-0.01273744352553686</v>
       </c>
     </row>
     <row r="14">
@@ -909,147 +909,147 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3828901306646432</v>
+        <v>0.3828901314623992</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1456907881260113</v>
+        <v>0.1456907906455988</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0264795923638972</v>
+        <v>-0.02647959372736601</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7632293351777412</v>
+        <v>0.7632293195229861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03593497360629744</v>
+        <v>0.03593496885792775</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1547549984069095</v>
+        <v>0.1547549998694429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4014585181707847</v>
+        <v>0.04486430913051092</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1301732454095936</v>
+        <v>0.2365364242186253</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3438998548529782</v>
+        <v>-0.4535574168164702</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2479467915395479</v>
+        <v>0.00930366945806654</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4633927701538706</v>
+        <v>0.7647816228678128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04907527496457208</v>
+        <v>-0.06132026733522181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04486430604582441</v>
+        <v>0.1354495595574493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2365364255002706</v>
+        <v>0.04929346000391467</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4535574130396365</v>
+        <v>-0.07400286519769451</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009303664996914139</v>
+        <v>0.2470264182405608</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7647816234688148</v>
+        <v>0.6400746721504595</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06132026736614612</v>
+        <v>0.03481973803541041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1354495573979111</v>
+        <v>0.4014585206389355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04929346324019668</v>
+        <v>0.1301732394600636</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.07400286069711258</v>
+        <v>-0.3438998606562246</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2470264100243534</v>
+        <v>0.2479467978591799</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6400746778392511</v>
+        <v>0.4633927662150827</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03481973741519738</v>
+        <v>0.04907527643241524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02669253850468319</v>
+        <v>-0.2723315417211079</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07422244923005893</v>
+        <v>-0.2399335003391923</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6301726295542877</v>
+        <v>0.789803810423562</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04529861616046727</v>
+        <v>-0.2212014094941296</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09030205070807078</v>
+        <v>-0.2219254120386182</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6657397197627671</v>
+        <v>-0.04090682874677157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2723315407677955</v>
+        <v>-0.02669253418912738</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2399335034639238</v>
+        <v>-0.07422244727089139</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7898037997436941</v>
+        <v>0.6301726339865847</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2212014097711849</v>
+        <v>-0.04529862249890031</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2219254192351567</v>
+        <v>-0.09030204526530469</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.04090682625939321</v>
+        <v>0.6657397326359032</v>
       </c>
     </row>
     <row r="20">
@@ -1059,72 +1059,72 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01617606329092261</v>
+        <v>0.0161760634816227</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05131259151408353</v>
+        <v>-0.05131259338132382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7963514178516897</v>
+        <v>0.7963514024883601</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04548269767196828</v>
+        <v>0.04548269630222896</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1206698122755912</v>
+        <v>-0.1206698137313195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09809679081009841</v>
+        <v>0.09809679561554918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3572529929654168</v>
+        <v>-0.09613898354356032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0711254772095069</v>
+        <v>-0.03199341548043538</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.08746849044364374</v>
+        <v>0.09767192605087387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2837560539667371</v>
+        <v>-0.004977691558137697</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06590328878802361</v>
+        <v>-0.005878212170707476</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6304727976244364</v>
+        <v>0.9521791278791332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.09613898094827154</v>
+        <v>-0.3572529935701216</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03199341608813937</v>
+        <v>0.071125475876885</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09767192702237958</v>
+        <v>-0.08746849430673782</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004977694271256688</v>
+        <v>0.2837560559416707</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.005878211869728399</v>
+        <v>0.06590328589392641</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9521791424110894</v>
+        <v>0.6304728008228307</v>
       </c>
     </row>
   </sheetData>
@@ -1220,43 +1220,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.648254708889074</v>
+        <v>4.648254693095826</v>
       </c>
       <c r="C2" t="n">
-        <v>2.802762042355374</v>
+        <v>2.802762021318809</v>
       </c>
       <c r="D2" t="n">
-        <v>2.337893659578852</v>
+        <v>2.337893633089258</v>
       </c>
       <c r="E2" t="n">
-        <v>2.209692031005621</v>
+        <v>2.20969198795899</v>
       </c>
       <c r="F2" t="n">
-        <v>2.114856501014144</v>
+        <v>2.114856493838247</v>
       </c>
       <c r="G2" t="n">
-        <v>1.893244858398855</v>
+        <v>1.893244857714826</v>
       </c>
       <c r="H2" t="n">
-        <v>1.032237094460216</v>
+        <v>1.032237140243889</v>
       </c>
       <c r="I2" t="n">
-        <v>4.807764625604534</v>
+        <v>4.80776463559952</v>
       </c>
       <c r="J2" t="n">
-        <v>2.51165855057854</v>
+        <v>2.511658534618537</v>
       </c>
       <c r="K2" t="n">
-        <v>2.204500845928658</v>
+        <v>2.204500857808814</v>
       </c>
       <c r="L2" t="n">
-        <v>2.013880019784084</v>
+        <v>2.013880028075578</v>
       </c>
       <c r="M2" t="n">
-        <v>2.003443466032196</v>
+        <v>2.003443446494662</v>
       </c>
       <c r="N2" t="n">
-        <v>1.882546822724686</v>
+        <v>1.882546819392985</v>
       </c>
     </row>
     <row r="3">
@@ -1266,43 +1266,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1721575818107065</v>
+        <v>0.1721575812257713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1038060015687176</v>
+        <v>0.1038060007895855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.086588654058476</v>
+        <v>0.08658865307737994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08184044559280078</v>
+        <v>0.08184044399848113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07832801855607939</v>
+        <v>0.07832801829030543</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07012017994069836</v>
+        <v>0.07012017991536391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03823100349852653</v>
+        <v>0.03823100519421813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.228941172647835</v>
+        <v>0.2289411731237867</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1196027881227876</v>
+        <v>0.1196027873627875</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1049762307585075</v>
+        <v>0.1049762313242292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09589904856114687</v>
+        <v>0.09589904895597992</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09540206981105695</v>
+        <v>0.09540206888069817</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0896450867964136</v>
+        <v>0.08964508663776119</v>
       </c>
     </row>
     <row r="4">
@@ -1312,43 +1312,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1721575818107065</v>
+        <v>0.1721575812257713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.275963583379424</v>
+        <v>0.2759635820153569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3625522374379</v>
+        <v>0.3625522350927368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4443926830307008</v>
+        <v>0.4443926790912179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5227207015867802</v>
+        <v>0.5227206973815234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5928408815274786</v>
+        <v>0.5928408772968873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6310718850260051</v>
+        <v>0.6310718824911055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.228941172647835</v>
+        <v>0.2289411731237867</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3485439607706226</v>
+        <v>0.3485439604865742</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45352019152913</v>
+        <v>0.4535201918108034</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5494192400902769</v>
+        <v>0.5494192407667833</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6448213099013338</v>
+        <v>0.6448213096474814</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7344663966977474</v>
+        <v>0.7344663962852426</v>
       </c>
     </row>
     <row r="5">
@@ -1358,43 +1358,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2728018564851962</v>
+        <v>0.2728018566540996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1644915643238329</v>
+        <v>0.1644915637499482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1372088602155171</v>
+        <v>0.1372088592120096</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1296848228144854</v>
+        <v>0.1296848208090377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1241190115019174</v>
+        <v>0.1241190115793337</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1111128250275464</v>
+        <v>0.111112825433721</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06058105963150475</v>
+        <v>0.06058106256185002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3117108879006351</v>
+        <v>0.3117108887237279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1628431044095914</v>
+        <v>0.1628431034662853</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1429285685914206</v>
+        <v>0.1429285694419434</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1305696884055158</v>
+        <v>0.130569689016427</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1298930355969947</v>
+        <v>0.1298930344032338</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1220547150958425</v>
+        <v>0.1220547149483827</v>
       </c>
     </row>
   </sheetData>
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.807764625604534</v>
+        <v>4.80776463559952</v>
       </c>
       <c r="C2" t="n">
-        <v>2.51165855057854</v>
+        <v>2.511658534618537</v>
       </c>
       <c r="D2" t="n">
-        <v>2.204500845928658</v>
+        <v>2.204500857808814</v>
       </c>
       <c r="E2" t="n">
-        <v>2.013880019784084</v>
+        <v>2.013880028075578</v>
       </c>
       <c r="F2" t="n">
-        <v>2.003443466032196</v>
+        <v>2.003443446494662</v>
       </c>
       <c r="G2" t="n">
-        <v>1.882546822724686</v>
+        <v>1.882546819392985</v>
       </c>
     </row>
     <row r="3">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.228941172647835</v>
+        <v>0.2289411731237867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1196027881227876</v>
+        <v>0.1196027873627875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1049762307585075</v>
+        <v>0.1049762313242292</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09589904856114687</v>
+        <v>0.09589904895597992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09540206981105695</v>
+        <v>0.09540206888069817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0896450867964136</v>
+        <v>0.08964508663776119</v>
       </c>
     </row>
     <row r="4">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.228941172647835</v>
+        <v>0.2289411731237867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3485439607706226</v>
+        <v>0.3485439604865742</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45352019152913</v>
+        <v>0.4535201918108034</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5494192400902769</v>
+        <v>0.5494192407667833</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6448213099013338</v>
+        <v>0.6448213096474814</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7344663966977474</v>
+        <v>0.7344663962852426</v>
       </c>
     </row>
     <row r="5">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3117108879006351</v>
+        <v>0.3117108887237279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1628431044095914</v>
+        <v>0.1628431034662853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1429285685914206</v>
+        <v>0.1429285694419434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1305696884055158</v>
+        <v>0.130569689016427</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298930355969947</v>
+        <v>0.1298930344032338</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220547150958425</v>
+        <v>0.1220547149483827</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QESL', 'QNOHLTH', 'QSERV', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QRENTER', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QBLACK', 'QFAM', 'QFHH', 'QPOVTY', 'QNOAUTO', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'QSERV', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QBLACK', 'QFAM', 'QFHH', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2015_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2015_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT' 'QSERV']</t>
+          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'PPUNIT' 'QSERV']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QBLACK' 'QFAM' 'QFHH']</t>
+          <t>['QFHH' 'QBLACK' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QRENTER' 'QNOAUTO' 'QPOVTY']</t>
+          <t>['PPUNIT' 'QNOAUTO' 'QRENTER' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -605,176 +605,176 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8604417976494784</v>
+        <v>0.8796164271082707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160568581771358</v>
+        <v>0.2014919080444381</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06915685180667901</v>
+        <v>-0.0190408581804392</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09000733896073516</v>
+        <v>0.2532049791506481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1477021107151448</v>
+        <v>0.1445291330060528</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1588306519121793</v>
+        <v>-0.06380105328577902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6950042396927377</v>
+        <v>0.6263524542494799</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03972856865249846</v>
+        <v>0.4231482309912794</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1344850090949592</v>
+        <v>-0.1289248808320875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2953432226727966</v>
+        <v>0.2413968207598956</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5026933097031449</v>
+        <v>0.2577595493982111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05289376696467377</v>
+        <v>-0.1447924339206693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8796164256370079</v>
+        <v>0.8323335015373236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201491906632824</v>
+        <v>0.3030498687319931</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01904085998538924</v>
+        <v>-0.1374418384212517</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2532049821778706</v>
+        <v>0.2467719528476344</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1445291279046995</v>
+        <v>0.08043022161551641</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06380105393169604</v>
+        <v>-0.04898791542715011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8323335045057275</v>
+        <v>0.7821909749510385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3030498672351184</v>
+        <v>0.1656086920757287</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1374418399146687</v>
+        <v>0.01459395576277603</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2467719531841395</v>
+        <v>-0.003581479738758786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08043021670754288</v>
+        <v>0.05255975107989691</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04898791491532303</v>
+        <v>-0.1839728292846068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6263524583266623</v>
+        <v>0.8604417968181007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4231482320438646</v>
+        <v>0.1605685829214509</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1289248804973536</v>
+        <v>-0.06915685166506873</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2413968230640429</v>
+        <v>0.0900073378861644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.257759549070146</v>
+        <v>0.1477021137606139</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1447924359971534</v>
+        <v>-0.1588306510949748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7821909691904856</v>
+        <v>0.6950042393588896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1656086918889093</v>
+        <v>-0.03972856519538977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01459395357765911</v>
+        <v>-0.1344850057449934</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.003581474197257717</v>
+        <v>0.2953432206910001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05255974705525795</v>
+        <v>-0.5026932933096856</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1839728301921103</v>
+        <v>0.0528937655439668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4381629365198772</v>
+        <v>0.3292221016792063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.66880820247897</v>
+        <v>0.7773717327631232</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2718828411818507</v>
+        <v>-0.04704188464538874</v>
       </c>
       <c r="E8" t="n">
-        <v>0.324075727470801</v>
+        <v>0.2450555876187607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1684201565279889</v>
+        <v>-0.02255222281967937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.021689691894979</v>
+        <v>-0.00420832640410361</v>
       </c>
     </row>
     <row r="9">
@@ -784,97 +784,97 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1825438482005984</v>
+        <v>0.1825438449346474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8515610073946787</v>
+        <v>0.8515610153454668</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1644290267268402</v>
+        <v>-0.1644290220386452</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2015465458342662</v>
+        <v>0.2015465414057018</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2742661756177662</v>
+        <v>0.2742661758606849</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01891201803612595</v>
+        <v>-0.01891201864899987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3292221004674073</v>
+        <v>0.4381629356174662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.777371739145433</v>
+        <v>0.6688082080116899</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04704188475049402</v>
+        <v>-0.2718828372361786</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2450555885401677</v>
+        <v>0.324075724130686</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02255222619899414</v>
+        <v>0.168420160360908</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00420832700537627</v>
+        <v>0.02168969175170757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QBLACK</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1025583099229878</v>
+        <v>0.3828901316742578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2551143919769759</v>
+        <v>0.1456907884687031</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01547994434575837</v>
+        <v>-0.02647959353806028</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4851388598071205</v>
+        <v>0.7632293298155145</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07551422482507193</v>
+        <v>0.03593497192268831</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04224833066485714</v>
+        <v>0.1547549994878918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>QBLACK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1062308591004697</v>
+        <v>0.1025583087885252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2023021799095329</v>
+        <v>0.2551143942218732</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08247401214069838</v>
+        <v>-0.01547994305573723</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5455063355779279</v>
+        <v>0.4851388616539725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3751706954134068</v>
+        <v>0.07551422662716183</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02169796957825108</v>
+        <v>0.04224833004147363</v>
       </c>
     </row>
     <row r="13">
@@ -884,97 +884,97 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4669965697143185</v>
+        <v>0.4669965686187973</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3070170503415574</v>
+        <v>0.3070170536622892</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1813838185569957</v>
+        <v>-0.1813838162546476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3973956104008125</v>
+        <v>0.3973956056364711</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3079941395575553</v>
+        <v>0.3079941433097921</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01273744352553686</v>
+        <v>-0.01273744320067031</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3828901314623992</v>
+        <v>0.1062308557863449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1456907906455988</v>
+        <v>0.2023021808348935</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02647959372736601</v>
+        <v>-0.08247400965232857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7632293195229861</v>
+        <v>0.5455063387033074</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03593496885792775</v>
+        <v>0.3751707003196647</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1547549998694429</v>
+        <v>-0.02169797112039288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04486430913051092</v>
+        <v>0.1354495566070024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2365364242186253</v>
+        <v>0.04929346205972533</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4535574168164702</v>
+        <v>-0.07400285783541989</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00930366945806654</v>
+        <v>0.2470264130298587</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7647816228678128</v>
+        <v>0.6400746808514192</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06132026733522181</v>
+        <v>0.03481973669935447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1354495595574493</v>
+        <v>0.04486430450066535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04929346000391467</v>
+        <v>0.2365364274652561</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07400286519769451</v>
+        <v>-0.4535574121506165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2470264182405608</v>
+        <v>0.009303663553637655</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6400746721504595</v>
+        <v>0.7647816307418176</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03481973803541041</v>
+        <v>-0.0613202676100341</v>
       </c>
     </row>
     <row r="17">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4014585206389355</v>
+        <v>0.4014585193158823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1301732394600636</v>
+        <v>0.1301732426793525</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3438998606562246</v>
+        <v>-0.3438998548214756</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2479467978591799</v>
+        <v>0.2479467935990725</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4633927662150827</v>
+        <v>0.4633927747969557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04907527643241524</v>
+        <v>0.04907527577027313</v>
       </c>
     </row>
     <row r="18">
@@ -1009,22 +1009,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2723315417211079</v>
+        <v>-0.2723315407909618</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2399335003391923</v>
+        <v>-0.2399335031432105</v>
       </c>
       <c r="D18" t="n">
-        <v>0.789803810423562</v>
+        <v>0.7898038031943579</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2212014094941296</v>
+        <v>-0.2212014105560411</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2219254120386182</v>
+        <v>-0.2219254190305221</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04090682874677157</v>
+        <v>-0.04090682722019753</v>
       </c>
     </row>
     <row r="19">
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02669253418912738</v>
+        <v>-0.0266925383516365</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.07422244727089139</v>
+        <v>-0.07422244909849891</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6301726339865847</v>
+        <v>0.6301726300663987</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04529862249890031</v>
+        <v>-0.04529861674794879</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09030204526530469</v>
+        <v>-0.09030205045769947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6657397326359032</v>
+        <v>0.6657397222761179</v>
       </c>
     </row>
     <row r="20">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0161760634816227</v>
+        <v>0.01617606372687962</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05131259338132382</v>
+        <v>-0.05131259206164983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7963514024883601</v>
+        <v>0.7963514189768188</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04548269630222896</v>
+        <v>0.04548269767164644</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1206698137313195</v>
+        <v>-0.1206698125475985</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09809679561554918</v>
+        <v>0.09809679122413205</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09613898354356032</v>
+        <v>-0.09613898100292047</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03199341548043538</v>
+        <v>-0.03199341601042778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09767192605087387</v>
+        <v>0.09767192521698141</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.004977691558137697</v>
+        <v>-0.00497769500182631</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.005878212170707476</v>
+        <v>-0.005878211877082097</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9521791278791332</v>
+        <v>0.9521791472850808</v>
       </c>
     </row>
     <row r="22">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3572529935701216</v>
+        <v>-0.3572529918961775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.071125475876885</v>
+        <v>0.07112547637410753</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.08746849430673782</v>
+        <v>-0.0874684893485813</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2837560559416707</v>
+        <v>0.2837560530721789</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06590328589392641</v>
+        <v>0.06590328741926689</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6304728008228307</v>
+        <v>0.630472792806393</v>
       </c>
     </row>
   </sheetData>
@@ -1241,22 +1241,22 @@
         <v>1.032237140243889</v>
       </c>
       <c r="I2" t="n">
-        <v>4.80776463559952</v>
+        <v>4.807764628034775</v>
       </c>
       <c r="J2" t="n">
-        <v>2.511658534618537</v>
+        <v>2.511658553466655</v>
       </c>
       <c r="K2" t="n">
-        <v>2.204500857808814</v>
+        <v>2.204500851101829</v>
       </c>
       <c r="L2" t="n">
-        <v>2.013880028075578</v>
+        <v>2.01388003034669</v>
       </c>
       <c r="M2" t="n">
-        <v>2.003443446494662</v>
+        <v>2.003443476614783</v>
       </c>
       <c r="N2" t="n">
-        <v>1.882546819392985</v>
+        <v>1.882546829858331</v>
       </c>
     </row>
     <row r="3">
@@ -1287,22 +1287,22 @@
         <v>0.03823100519421813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2289411731237867</v>
+        <v>0.2289411727635607</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1196027873627875</v>
+        <v>0.1196027882603169</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1049762313242292</v>
+        <v>0.104976231004849</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09589904895597992</v>
+        <v>0.09589904906412809</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09540206888069817</v>
+        <v>0.09540207031498966</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08964508663776119</v>
+        <v>0.089645087136111</v>
       </c>
     </row>
     <row r="4">
@@ -1333,22 +1333,22 @@
         <v>0.6310718824911055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2289411731237867</v>
+        <v>0.2289411727635607</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3485439604865742</v>
+        <v>0.3485439610238776</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4535201918108034</v>
+        <v>0.4535201920287266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5494192407667833</v>
+        <v>0.5494192410928547</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6448213096474814</v>
+        <v>0.6448213114078444</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7344663962852426</v>
+        <v>0.7344663985439553</v>
       </c>
     </row>
     <row r="5">
@@ -1379,22 +1379,22 @@
         <v>0.06058106256185002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3117108887237279</v>
+        <v>0.3117108872746605</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1628431034662853</v>
+        <v>0.1628431041875078</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1429285694419434</v>
+        <v>0.142928568567547</v>
       </c>
       <c r="L5" t="n">
-        <v>0.130569689016427</v>
+        <v>0.1305696887621318</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1298930344032338</v>
+        <v>0.129893035956607</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1220547149483827</v>
+        <v>0.122054715251546</v>
       </c>
     </row>
   </sheetData>
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.80776463559952</v>
+        <v>4.807764628034775</v>
       </c>
       <c r="C2" t="n">
-        <v>2.511658534618537</v>
+        <v>2.511658553466655</v>
       </c>
       <c r="D2" t="n">
-        <v>2.204500857808814</v>
+        <v>2.204500851101829</v>
       </c>
       <c r="E2" t="n">
-        <v>2.013880028075578</v>
+        <v>2.01388003034669</v>
       </c>
       <c r="F2" t="n">
-        <v>2.003443446494662</v>
+        <v>2.003443476614783</v>
       </c>
       <c r="G2" t="n">
-        <v>1.882546819392985</v>
+        <v>1.882546829858331</v>
       </c>
     </row>
     <row r="3">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2289411731237867</v>
+        <v>0.2289411727635607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1196027873627875</v>
+        <v>0.1196027882603169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1049762313242292</v>
+        <v>0.104976231004849</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09589904895597992</v>
+        <v>0.09589904906412809</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09540206888069817</v>
+        <v>0.09540207031498966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08964508663776119</v>
+        <v>0.089645087136111</v>
       </c>
     </row>
     <row r="4">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2289411731237867</v>
+        <v>0.2289411727635607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3485439604865742</v>
+        <v>0.3485439610238776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4535201918108034</v>
+        <v>0.4535201920287266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5494192407667833</v>
+        <v>0.5494192410928547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6448213096474814</v>
+        <v>0.6448213114078444</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7344663962852426</v>
+        <v>0.7344663985439553</v>
       </c>
     </row>
     <row r="5">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3117108887237279</v>
+        <v>0.3117108872746605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1628431034662853</v>
+        <v>0.1628431041875078</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1429285694419434</v>
+        <v>0.142928568567547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.130569689016427</v>
+        <v>0.1305696887621318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298930344032338</v>
+        <v>0.129893035956607</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220547149483827</v>
+        <v>0.122054715251546</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'QSERV', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QBLACK', 'QFAM', 'QFHH', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'PPUNIT', 'QSERV', 'MDHSEVAL', 'QRICH', 'PERCAP', 'QRENTER', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFHH', 'QBLACK', 'QFAM', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2015_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2015_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'PPUNIT' 'QSERV']</t>
+          <t>['QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QSERV']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['QRENTER' 'MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QRENTER' 'QAGEDEP' 'QSSBEN' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QFHH' 'QBLACK' 'QFAM']</t>
+          <t>['QBLACK' 'QFHH' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QNOAUTO' 'QRENTER' 'QPOVTY']</t>
+          <t>['PPUNIT' 'QNOAUTO' 'QPOVTY' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -605,51 +605,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8796164271082707</v>
+        <v>0.7821909689358556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2014919080444381</v>
+        <v>0.1656086914108301</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0190408581804392</v>
+        <v>0.01459395259299884</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2532049791506481</v>
+        <v>-0.003581473648522401</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1445291330060528</v>
+        <v>0.05255974686648993</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06380105328577902</v>
+        <v>-0.1839728287664085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6263524542494799</v>
+        <v>0.8604417995836853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4231482309912794</v>
+        <v>0.1605685808939776</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1289248808320875</v>
+        <v>-0.06915685233313845</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2413968207598956</v>
+        <v>0.09000733776396568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2577595493982111</v>
+        <v>0.1477021116819737</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1447924339206693</v>
+        <v>-0.158830650451298</v>
       </c>
     </row>
     <row r="4">
@@ -659,247 +659,247 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8323335015373236</v>
+        <v>0.8323335016600828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3030498687319931</v>
+        <v>0.3030498674439314</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1374418384212517</v>
+        <v>-0.1374418398949056</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2467719528476344</v>
+        <v>0.2467719543536324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08043022161551641</v>
+        <v>0.08043021777262344</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04898791542715011</v>
+        <v>-0.04898791514532546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7821909749510385</v>
+        <v>0.8796164283688074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1656086920757287</v>
+        <v>0.201491905900527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01459395576277603</v>
+        <v>-0.01904085912418664</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.003581479738758786</v>
+        <v>0.2532049816142449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05255975107989691</v>
+        <v>0.1445291297456208</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1839728292846068</v>
+        <v>-0.06380105280634119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8604417968181007</v>
+        <v>0.6950042374003055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1605685829214509</v>
+        <v>-0.03972856672799543</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06915685166506873</v>
+        <v>-0.1344850070206125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0900073378861644</v>
+        <v>0.2953432231273243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1477021137606139</v>
+        <v>-0.5026933023231334</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1588306510949748</v>
+        <v>0.05289376499831499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6950042393588896</v>
+        <v>0.6263524608485453</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03972856519538977</v>
+        <v>0.4231482353311709</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1344850057449934</v>
+        <v>-0.1289248784624312</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2953432206910001</v>
+        <v>0.2413968206664334</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5026932933096856</v>
+        <v>0.2577595518940573</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0528937655439668</v>
+        <v>-0.1447924363908129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3292221016792063</v>
+        <v>0.1825438460384359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7773717327631232</v>
+        <v>0.8515610157313307</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04704188464538874</v>
+        <v>-0.1644290248573316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2450555876187607</v>
+        <v>0.201546542764744</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02255222281967937</v>
+        <v>0.2742661744037205</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00420832640410361</v>
+        <v>-0.01891201835284783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1825438449346474</v>
+        <v>0.4381629359658992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8515610153454668</v>
+        <v>0.6688082003844982</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1644290220386452</v>
+        <v>-0.2718828392420062</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2015465414057018</v>
+        <v>0.3240757274027972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2742661758606849</v>
+        <v>0.1684201578666841</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01891201864899987</v>
+        <v>0.02168969048567609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4381629356174662</v>
+        <v>0.3292221015054781</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6688082080116899</v>
+        <v>0.7773717341006603</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2718828372361786</v>
+        <v>-0.04704188545192283</v>
       </c>
       <c r="E10" t="n">
-        <v>0.324075724130686</v>
+        <v>0.2450555883215567</v>
       </c>
       <c r="F10" t="n">
-        <v>0.168420160360908</v>
+        <v>-0.02255222467615779</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02168969175170757</v>
+        <v>-0.004208326505093275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QBLACK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3828901316742578</v>
+        <v>0.1025583099314621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1456907884687031</v>
+        <v>0.2551143930376371</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02647959353806028</v>
+        <v>-0.01547994410367194</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7632293298155145</v>
+        <v>0.4851388573264886</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03593497192268831</v>
+        <v>0.07551422661116962</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1547549994878918</v>
+        <v>0.04224833041272957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QBLACK</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1025583087885252</v>
+        <v>0.4669965690874454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2551143942218732</v>
+        <v>0.3070170516770803</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01547994305573723</v>
+        <v>-0.18138381746818</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4851388616539725</v>
+        <v>0.3973956086062266</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07551422662716183</v>
+        <v>0.3079941409195525</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04224833004147363</v>
+        <v>-0.012737443669952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4669965686187973</v>
+        <v>0.3828901299824346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3070170536622892</v>
+        <v>0.145690789242422</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1813838162546476</v>
+        <v>-0.02647959311883734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3973956056364711</v>
+        <v>0.7632293281393668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3079941433097921</v>
+        <v>0.03593497018885226</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01273744320067031</v>
+        <v>0.1547549983891707</v>
       </c>
     </row>
     <row r="14">
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1062308557863449</v>
+        <v>0.1062308589827951</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2023021808348935</v>
+        <v>0.2023021819542558</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.08247400965232857</v>
+        <v>-0.08247401248335917</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5455063387033074</v>
+        <v>0.5455063307785997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3751707003196647</v>
+        <v>0.3751706956002662</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02169797112039288</v>
+        <v>-0.02169796913727789</v>
       </c>
     </row>
     <row r="15">
@@ -934,197 +934,197 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1354495566070024</v>
+        <v>0.1354495580588886</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04929346205972533</v>
+        <v>0.04929346058814856</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07400285783541989</v>
+        <v>-0.07400286187607431</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2470264130298587</v>
+        <v>0.2470264175491348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6400746808514192</v>
+        <v>0.6400746758800354</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03481973669935447</v>
+        <v>0.03481973699733333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04486430450066535</v>
+        <v>0.401458517783837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2365364274652561</v>
+        <v>0.130173243033846</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4535574121506165</v>
+        <v>-0.3438998568061208</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009303663553637655</v>
+        <v>0.2479467977992602</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7647816307418176</v>
+        <v>0.4633927646910507</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0613202676100341</v>
+        <v>0.04907527371545957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4014585193158823</v>
+        <v>0.04486430798919025</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1301732426793525</v>
+        <v>0.2365364248053967</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3438998548214756</v>
+        <v>-0.4535574164411322</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2479467935990725</v>
+        <v>0.009303664789213824</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4633927747969557</v>
+        <v>0.7647816306482328</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04907527577027313</v>
+        <v>-0.06132026689725781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2723315407909618</v>
+        <v>-0.02669253660299269</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2399335031432105</v>
+        <v>-0.074222448405682</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7898038031943579</v>
+        <v>0.6301726282672856</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2212014105560411</v>
+        <v>-0.04529861913045254</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2219254190305221</v>
+        <v>-0.0903020486197709</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04090682722019753</v>
+        <v>0.6657397260356044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0266925383516365</v>
+        <v>0.01617606343591847</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.07422244909849891</v>
+        <v>-0.05131259239514797</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6301726300663987</v>
+        <v>0.7963514080016538</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04529861674794879</v>
+        <v>0.04548269647564972</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09030205045769947</v>
+        <v>-0.1206698131652998</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6657397222761179</v>
+        <v>0.09809679514278698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01617606372687962</v>
+        <v>-0.2723315410420803</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05131259206164983</v>
+        <v>-0.2399335006838112</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7963514189768188</v>
+        <v>0.7898038128990541</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04548269767164644</v>
+        <v>-0.2212014109340331</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1206698125475985</v>
+        <v>-0.2219254127631007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09809679122413205</v>
+        <v>-0.04090682816419274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09613898100292047</v>
+        <v>-0.3572529946323378</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03199341601042778</v>
+        <v>0.07112547669322955</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09767192521698141</v>
+        <v>-0.08746849301792035</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00497769500182631</v>
+        <v>0.2837560570796305</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.005878211877082097</v>
+        <v>0.06590328694273323</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9521791472850808</v>
+        <v>0.6304728005923023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3572529918961775</v>
+        <v>-0.09613898208132475</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07112547637410753</v>
+        <v>-0.03199341581635397</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0874684893485813</v>
+        <v>0.09767192567896654</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2837560530721789</v>
+        <v>-0.004977692797068307</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06590328741926689</v>
+        <v>-0.005878212047551346</v>
       </c>
       <c r="G22" t="n">
-        <v>0.630472792806393</v>
+        <v>0.9521791351696267</v>
       </c>
     </row>
   </sheetData>
@@ -1241,22 +1241,22 @@
         <v>1.032237140243889</v>
       </c>
       <c r="I2" t="n">
-        <v>4.807764628034775</v>
+        <v>4.807764633672377</v>
       </c>
       <c r="J2" t="n">
-        <v>2.511658553466655</v>
+        <v>2.511658543607938</v>
       </c>
       <c r="K2" t="n">
-        <v>2.204500851101829</v>
+        <v>2.204500856454949</v>
       </c>
       <c r="L2" t="n">
-        <v>2.01388003034669</v>
+        <v>2.013880030501159</v>
       </c>
       <c r="M2" t="n">
-        <v>2.003443476614783</v>
+        <v>2.003443458750975</v>
       </c>
       <c r="N2" t="n">
-        <v>1.882546829858331</v>
+        <v>1.882546821912747</v>
       </c>
     </row>
     <row r="3">
@@ -1287,22 +1287,22 @@
         <v>0.03823100519421813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2289411727635607</v>
+        <v>0.228941173032018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1196027882603169</v>
+        <v>0.1196027877908542</v>
       </c>
       <c r="K3" t="n">
-        <v>0.104976231004849</v>
+        <v>0.1049762312597595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09589904906412809</v>
+        <v>0.09589904907148378</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09540207031498966</v>
+        <v>0.09540206946433216</v>
       </c>
       <c r="N3" t="n">
-        <v>0.089645087136111</v>
+        <v>0.08964508675774985</v>
       </c>
     </row>
     <row r="4">
@@ -1333,22 +1333,22 @@
         <v>0.6310718824911055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2289411727635607</v>
+        <v>0.228941173032018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3485439610238776</v>
+        <v>0.3485439608228722</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4535201920287266</v>
+        <v>0.4535201920826317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5494192410928547</v>
+        <v>0.5494192411541154</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6448213114078444</v>
+        <v>0.6448213106184476</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7344663985439553</v>
+        <v>0.7344663973761975</v>
       </c>
     </row>
     <row r="5">
@@ -1379,22 +1379,22 @@
         <v>0.06058106256185002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3117108872746605</v>
+        <v>0.3117108881357756</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1628431041875078</v>
+        <v>0.1628431038072298</v>
       </c>
       <c r="K5" t="n">
-        <v>0.142928568567547</v>
+        <v>0.1429285691418638</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1305696887621318</v>
+        <v>0.1305696889797448</v>
       </c>
       <c r="M5" t="n">
-        <v>0.129893035956607</v>
+        <v>0.1298930350049312</v>
       </c>
       <c r="N5" t="n">
-        <v>0.122054715251546</v>
+        <v>0.1220547149304547</v>
       </c>
     </row>
   </sheetData>
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.807764628034775</v>
+        <v>4.807764633672377</v>
       </c>
       <c r="C2" t="n">
-        <v>2.511658553466655</v>
+        <v>2.511658543607938</v>
       </c>
       <c r="D2" t="n">
-        <v>2.204500851101829</v>
+        <v>2.204500856454949</v>
       </c>
       <c r="E2" t="n">
-        <v>2.01388003034669</v>
+        <v>2.013880030501159</v>
       </c>
       <c r="F2" t="n">
-        <v>2.003443476614783</v>
+        <v>2.003443458750975</v>
       </c>
       <c r="G2" t="n">
-        <v>1.882546829858331</v>
+        <v>1.882546821912747</v>
       </c>
     </row>
     <row r="3">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2289411727635607</v>
+        <v>0.228941173032018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1196027882603169</v>
+        <v>0.1196027877908542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104976231004849</v>
+        <v>0.1049762312597595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09589904906412809</v>
+        <v>0.09589904907148378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09540207031498966</v>
+        <v>0.09540206946433216</v>
       </c>
       <c r="G3" t="n">
-        <v>0.089645087136111</v>
+        <v>0.08964508675774985</v>
       </c>
     </row>
     <row r="4">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2289411727635607</v>
+        <v>0.228941173032018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3485439610238776</v>
+        <v>0.3485439608228722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4535201920287266</v>
+        <v>0.4535201920826317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5494192410928547</v>
+        <v>0.5494192411541154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6448213114078444</v>
+        <v>0.6448213106184476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7344663985439553</v>
+        <v>0.7344663973761975</v>
       </c>
     </row>
     <row r="5">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3117108872746605</v>
+        <v>0.3117108881357756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1628431041875078</v>
+        <v>0.1628431038072298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.142928568567547</v>
+        <v>0.1429285691418638</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1305696887621318</v>
+        <v>0.1305696889797448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.129893035956607</v>
+        <v>0.1298930350049312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.122054715251546</v>
+        <v>0.1220547149304547</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'PPUNIT', 'QSERV', 'MDHSEVAL', 'QRICH', 'PERCAP', 'QRENTER', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFHH', 'QBLACK', 'QFAM', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QSERV', 'QRICH', 'PERCAP', 'MDHSEVAL', 'QRENTER', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QBLACK', 'QFHH', 'QFAM', 'QNOAUTO', 'QPOVTY', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
